--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.1965461605535671</v>
+        <v>0.1832435933191248</v>
       </c>
       <c r="D2">
-        <v>0.8442064929234219</v>
+        <v>0.8562851856351483</v>
       </c>
       <c r="E2">
         <v>0.5797534556430221</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8686401891896842</v>
+        <v>0.6983457689830992</v>
       </c>
       <c r="D3">
-        <v>0.3851681098243991</v>
+        <v>0.4922774486340598</v>
       </c>
       <c r="E3">
         <v>0.5797534556430221</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.5551426632288176</v>
+        <v>0.4500564402174905</v>
       </c>
       <c r="D4">
-        <v>0.5788710334754756</v>
+        <v>0.6570731942073555</v>
       </c>
       <c r="E4">
         <v>0.5797534556430221</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.683398753641219</v>
+        <v>2.167558588652516</v>
       </c>
       <c r="D5">
-        <v>0.007359369835387763</v>
+        <v>0.0412875051353867</v>
       </c>
       <c r="E5">
         <v>0.5797534556430221</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.58244827185048</v>
+        <v>0.5126421167307502</v>
       </c>
       <c r="D6">
-        <v>0.5603429802992543</v>
+        <v>0.6133106005456153</v>
       </c>
       <c r="E6">
         <v>0.5752581927087048</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.321612665600937</v>
+        <v>0.4030493446970735</v>
       </c>
       <c r="D7">
-        <v>0.7477861800579324</v>
+        <v>0.6908020548691507</v>
       </c>
       <c r="E7">
         <v>0.5752581927087048</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.380696460481624</v>
+        <v>2.24597874705914</v>
       </c>
       <c r="D8">
-        <v>0.01739092528620745</v>
+        <v>0.03507759722231163</v>
       </c>
       <c r="E8">
         <v>0.5752581927087048</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.3805275999820463</v>
+        <v>-0.3527997888632249</v>
       </c>
       <c r="D9">
-        <v>0.7036019484304026</v>
+        <v>0.727596272958678</v>
       </c>
       <c r="E9">
         <v>0.562690917977455</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.690668009991683</v>
+        <v>1.173589285924658</v>
       </c>
       <c r="D10">
-        <v>0.09108583388489366</v>
+        <v>0.2531089427007296</v>
       </c>
       <c r="E10">
         <v>0.562690917977455</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.1778147318109</v>
+        <v>1.723521432056095</v>
       </c>
       <c r="D11">
-        <v>0.02955861420527861</v>
+        <v>0.09882166873345533</v>
       </c>
       <c r="E11">
         <v>0.5688684087933618</v>
@@ -687,7 +687,7 @@
         <v>0.5341095329198143</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>200</v>
